--- a/Poshan Tracker AWC 2023-12-02.xlsx
+++ b/Poshan Tracker AWC 2023-12-02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/ljaacks_ed_ac_uk/Documents/Anuvaad/Poshan Tracker/Poshan Tracker Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{3540D5C2-D41E-444B-9462-BA8D2CFA9399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BC28B1E-5728-48DE-AB84-74A98C91B0BA}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{3540D5C2-D41E-444B-9462-BA8D2CFA9399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AFD11F7-F3B5-41E9-A957-5D953A3C71D4}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="690" windowWidth="19410" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,13 +51,13 @@
     <t>growth</t>
   </si>
   <si>
-    <t>home_visit_target</t>
+    <t>hcm_15d</t>
   </si>
   <si>
-    <t>home_visit_complete</t>
+    <t>awc_registered</t>
   </si>
   <si>
-    <t>hcm_15d</t>
+    <t>eligible_beneficiaries</t>
   </si>
 </sst>
 </file>
@@ -141,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -159,6 +159,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -481,20 +484,20 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
@@ -503,34 +506,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="L1" s="4"/>
     </row>
@@ -538,41 +541,43 @@
       <c r="A2" s="8">
         <v>44652</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4">
+        <v>99730258</v>
+      </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="6">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="6">
         <v>19738021</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>44682</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="9">
+        <v>1392969</v>
+      </c>
+      <c r="C3" s="7">
         <v>599895</v>
       </c>
-      <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7">
+        <v>98746344</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="7">
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7">
         <v>28680178</v>
-      </c>
-      <c r="J3" s="7">
-        <v>35478759</v>
-      </c>
-      <c r="K3" s="7">
-        <v>12027372</v>
       </c>
       <c r="L3" s="7"/>
     </row>
@@ -580,23 +585,23 @@
       <c r="A4" s="8">
         <v>44713</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="9">
+        <v>1394924</v>
+      </c>
+      <c r="C4" s="7">
         <v>747723</v>
       </c>
-      <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7">
+        <v>97555576</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="7">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7">
         <v>32055170</v>
-      </c>
-      <c r="J4" s="7">
-        <v>43964393</v>
-      </c>
-      <c r="K4" s="7">
-        <v>20106892</v>
       </c>
       <c r="L4" s="7"/>
     </row>
@@ -604,35 +609,35 @@
       <c r="A5" s="8">
         <v>44743</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="9">
+        <v>1395948</v>
+      </c>
+      <c r="C5" s="7">
         <v>974378</v>
       </c>
-      <c r="C5" s="7">
+      <c r="D5" s="7">
         <v>493730</v>
       </c>
-      <c r="D5" s="7">
+      <c r="E5" s="7">
         <v>332752</v>
       </c>
-      <c r="E5" s="7">
+      <c r="F5" s="7">
+        <v>99093399</v>
+      </c>
+      <c r="G5" s="7">
         <v>4118530</v>
       </c>
-      <c r="F5" s="7">
+      <c r="H5" s="7">
         <v>4126648</v>
       </c>
-      <c r="G5" s="7">
+      <c r="I5" s="7">
         <v>62813</v>
       </c>
-      <c r="H5" s="7">
+      <c r="J5" s="7">
         <v>625</v>
       </c>
-      <c r="I5" s="7">
+      <c r="K5" s="7">
         <v>40096413</v>
-      </c>
-      <c r="J5" s="7">
-        <v>53443277</v>
-      </c>
-      <c r="K5" s="7">
-        <v>27061751</v>
       </c>
       <c r="L5" s="7"/>
     </row>
@@ -640,35 +645,35 @@
       <c r="A6" s="8">
         <v>44774</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="9">
+        <v>1396746</v>
+      </c>
+      <c r="C6" s="7">
         <v>1228447</v>
       </c>
-      <c r="C6" s="7">
+      <c r="D6" s="7">
         <v>685438</v>
       </c>
-      <c r="D6" s="7">
+      <c r="E6" s="7">
         <v>426329</v>
       </c>
-      <c r="E6" s="7">
+      <c r="F6" s="7">
+        <v>97830146</v>
+      </c>
+      <c r="G6" s="7">
         <v>7199334</v>
       </c>
-      <c r="F6" s="7">
+      <c r="H6" s="7">
         <v>7083260</v>
       </c>
-      <c r="G6" s="7">
+      <c r="I6" s="7">
         <v>5609473</v>
       </c>
-      <c r="H6" s="7">
+      <c r="J6" s="7">
         <v>2659554</v>
       </c>
-      <c r="I6" s="7">
+      <c r="K6" s="7">
         <v>42203934</v>
-      </c>
-      <c r="J6" s="7">
-        <v>15179785</v>
-      </c>
-      <c r="K6" s="7">
-        <v>9771676</v>
       </c>
       <c r="L6" s="7"/>
     </row>
@@ -676,35 +681,35 @@
       <c r="A7" s="8">
         <v>44805</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="9">
+        <v>1396940</v>
+      </c>
+      <c r="C7" s="7">
         <v>1212827</v>
       </c>
-      <c r="C7" s="7">
+      <c r="D7" s="7">
         <v>710820</v>
       </c>
-      <c r="D7" s="7">
+      <c r="E7" s="7">
         <v>478000</v>
       </c>
-      <c r="E7" s="7">
+      <c r="F7" s="7">
+        <v>97884995</v>
+      </c>
+      <c r="G7" s="7">
         <v>9621288</v>
       </c>
-      <c r="F7" s="7">
+      <c r="H7" s="7">
         <v>9489106</v>
       </c>
-      <c r="G7" s="7">
+      <c r="I7" s="7">
         <v>6853156</v>
       </c>
-      <c r="H7" s="7">
+      <c r="J7" s="7">
         <v>3774352</v>
       </c>
-      <c r="I7" s="7">
+      <c r="K7" s="7">
         <v>48014995</v>
-      </c>
-      <c r="J7" s="7">
-        <v>5405511</v>
-      </c>
-      <c r="K7" s="7">
-        <v>2640745</v>
       </c>
       <c r="L7" s="7"/>
     </row>
@@ -712,35 +717,35 @@
       <c r="A8" s="8">
         <v>44835</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="9">
+        <v>1397177</v>
+      </c>
+      <c r="C8" s="7">
         <v>1183688</v>
       </c>
-      <c r="C8" s="7">
+      <c r="D8" s="7">
         <v>627573</v>
       </c>
-      <c r="D8" s="7">
+      <c r="E8" s="7">
         <v>255163</v>
       </c>
-      <c r="E8" s="7">
+      <c r="F8" s="7">
+        <v>98496061</v>
+      </c>
+      <c r="G8" s="7">
         <v>9764344</v>
       </c>
-      <c r="F8" s="7">
+      <c r="H8" s="7">
         <v>9619162</v>
       </c>
-      <c r="G8" s="7">
+      <c r="I8" s="7">
         <v>6128639</v>
       </c>
-      <c r="H8" s="7">
+      <c r="J8" s="7">
         <v>1422124</v>
       </c>
-      <c r="I8" s="7">
+      <c r="K8" s="7">
         <v>49283056</v>
-      </c>
-      <c r="J8" s="7">
-        <v>20623436</v>
-      </c>
-      <c r="K8" s="7">
-        <v>14800724</v>
       </c>
       <c r="L8" s="7"/>
     </row>
@@ -748,35 +753,35 @@
       <c r="A9" s="8">
         <v>44866</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="9">
+        <v>1397392</v>
+      </c>
+      <c r="C9" s="7">
         <v>1245819</v>
       </c>
-      <c r="C9" s="7">
+      <c r="D9" s="7">
         <v>804959</v>
       </c>
-      <c r="D9" s="7">
+      <c r="E9" s="7">
         <v>596884</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F9" s="7">
+        <v>99812067</v>
+      </c>
+      <c r="G9" s="7">
         <v>10712456</v>
       </c>
-      <c r="F9" s="7">
+      <c r="H9" s="7">
         <v>10576291</v>
       </c>
-      <c r="G9" s="7">
+      <c r="I9" s="7">
         <v>9830394</v>
       </c>
-      <c r="H9" s="7">
+      <c r="J9" s="7">
         <v>5858658</v>
       </c>
-      <c r="I9" s="7">
+      <c r="K9" s="7">
         <v>54016027</v>
-      </c>
-      <c r="J9" s="7">
-        <v>23665698</v>
-      </c>
-      <c r="K9" s="7">
-        <v>18301495</v>
       </c>
       <c r="L9" s="7"/>
     </row>
@@ -784,35 +789,35 @@
       <c r="A10" s="8">
         <v>44896</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="9">
+        <v>1397523</v>
+      </c>
+      <c r="C10" s="7">
         <v>1211446</v>
       </c>
-      <c r="C10" s="7">
+      <c r="D10" s="7">
         <v>853493</v>
       </c>
-      <c r="D10" s="7">
+      <c r="E10" s="7">
         <v>696767</v>
       </c>
-      <c r="E10" s="7">
+      <c r="F10" s="7">
+        <v>101050463</v>
+      </c>
+      <c r="G10" s="7">
         <v>13539082</v>
       </c>
-      <c r="F10" s="7">
+      <c r="H10" s="7">
         <v>13363977</v>
       </c>
-      <c r="G10" s="7">
+      <c r="I10" s="7">
         <v>11264295</v>
       </c>
-      <c r="H10" s="7">
+      <c r="J10" s="7">
         <v>7706408</v>
       </c>
-      <c r="I10" s="7">
+      <c r="K10" s="7">
         <v>56055611</v>
-      </c>
-      <c r="J10" s="7">
-        <v>22883347</v>
-      </c>
-      <c r="K10" s="7">
-        <v>19850492</v>
       </c>
       <c r="L10" s="7"/>
     </row>
@@ -820,35 +825,35 @@
       <c r="A11" s="8">
         <v>44927</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="9">
+        <v>1397686</v>
+      </c>
+      <c r="C11" s="7">
         <v>1258673</v>
       </c>
-      <c r="C11" s="7">
+      <c r="D11" s="7">
         <v>771950</v>
       </c>
-      <c r="D11" s="7">
+      <c r="E11" s="7">
         <v>473052</v>
       </c>
-      <c r="E11" s="7">
+      <c r="F11" s="7">
+        <v>101636742</v>
+      </c>
+      <c r="G11" s="7">
         <v>17343603</v>
       </c>
-      <c r="F11" s="7">
+      <c r="H11" s="7">
         <v>17134067</v>
       </c>
-      <c r="G11" s="7">
+      <c r="I11" s="7">
         <v>9892940</v>
       </c>
-      <c r="H11" s="7">
+      <c r="J11" s="7">
         <v>5187003</v>
       </c>
-      <c r="I11" s="7">
+      <c r="K11" s="7">
         <v>62484904</v>
-      </c>
-      <c r="J11" s="7">
-        <v>24449588</v>
-      </c>
-      <c r="K11" s="7">
-        <v>21584663</v>
       </c>
       <c r="L11" s="7"/>
     </row>
@@ -856,35 +861,35 @@
       <c r="A12" s="8">
         <v>44958</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="9">
+        <v>1397034</v>
+      </c>
+      <c r="C12" s="7">
         <v>1269257</v>
       </c>
-      <c r="C12" s="7">
+      <c r="D12" s="7">
         <v>941695</v>
       </c>
-      <c r="D12" s="7">
+      <c r="E12" s="7">
         <v>667798</v>
       </c>
-      <c r="E12" s="7">
+      <c r="F12" s="7">
+        <v>99963025</v>
+      </c>
+      <c r="G12" s="7">
         <v>17126275</v>
       </c>
-      <c r="F12" s="7">
+      <c r="H12" s="7">
         <v>16589893</v>
       </c>
-      <c r="G12" s="7">
+      <c r="I12" s="7">
         <v>11711756</v>
       </c>
-      <c r="H12" s="7">
+      <c r="J12" s="7">
         <v>6101074</v>
       </c>
-      <c r="I12" s="7">
+      <c r="K12" s="7">
         <v>64474065</v>
-      </c>
-      <c r="J12" s="7">
-        <v>23146609</v>
-      </c>
-      <c r="K12" s="7">
-        <v>20815739</v>
       </c>
       <c r="L12" s="7"/>
     </row>
@@ -892,35 +897,35 @@
       <c r="A13" s="8">
         <v>44986</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="9">
+        <v>1397143</v>
+      </c>
+      <c r="C13" s="7">
         <v>1311761</v>
       </c>
-      <c r="C13" s="7">
+      <c r="D13" s="7">
         <v>1002052</v>
       </c>
-      <c r="D13" s="7">
+      <c r="E13" s="7">
         <v>799658</v>
       </c>
-      <c r="E13" s="7">
+      <c r="F13" s="7">
+        <v>100129469</v>
+      </c>
+      <c r="G13" s="7">
         <v>22038228</v>
       </c>
-      <c r="F13" s="7">
+      <c r="H13" s="7">
         <v>21392950</v>
       </c>
-      <c r="G13" s="7">
+      <c r="I13" s="7">
         <v>13334235</v>
       </c>
-      <c r="H13" s="7">
+      <c r="J13" s="7">
         <v>8820322</v>
       </c>
-      <c r="I13" s="7">
+      <c r="K13" s="7">
         <v>68414423</v>
-      </c>
-      <c r="J13" s="7">
-        <v>25531494</v>
-      </c>
-      <c r="K13" s="7">
-        <v>23663246</v>
       </c>
       <c r="L13" s="7"/>
     </row>
@@ -928,35 +933,35 @@
       <c r="A14" s="8">
         <v>45017</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="9">
+        <v>1397101</v>
+      </c>
+      <c r="C14" s="7">
         <v>1339108</v>
       </c>
-      <c r="C14" s="7">
+      <c r="D14" s="7">
         <v>1056950</v>
       </c>
-      <c r="D14" s="7">
+      <c r="E14" s="7">
         <v>724387</v>
       </c>
-      <c r="E14" s="7">
+      <c r="F14" s="7">
+        <v>100260464</v>
+      </c>
+      <c r="G14" s="7">
         <v>22876603</v>
       </c>
-      <c r="F14" s="7">
+      <c r="H14" s="7">
         <v>21855525</v>
       </c>
-      <c r="G14" s="7">
+      <c r="I14" s="7">
         <v>13872111</v>
       </c>
-      <c r="H14" s="7">
+      <c r="J14" s="7">
         <v>7128457</v>
       </c>
-      <c r="I14" s="7">
+      <c r="K14" s="7">
         <v>72665376</v>
-      </c>
-      <c r="J14" s="7">
-        <v>23029738</v>
-      </c>
-      <c r="K14" s="7">
-        <v>21214416</v>
       </c>
       <c r="L14" s="7"/>
     </row>
@@ -964,35 +969,35 @@
       <c r="A15" s="8">
         <v>45047</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="9">
+        <v>1396843</v>
+      </c>
+      <c r="C15" s="7">
         <v>1361107</v>
       </c>
-      <c r="C15" s="7">
+      <c r="D15" s="7">
         <v>1075512</v>
       </c>
-      <c r="D15" s="7">
+      <c r="E15" s="7">
         <v>927459</v>
       </c>
-      <c r="E15" s="7">
+      <c r="F15" s="7">
+        <v>100647068</v>
+      </c>
+      <c r="G15" s="7">
         <v>24075591</v>
       </c>
-      <c r="F15" s="7">
+      <c r="H15" s="7">
         <v>23215388</v>
       </c>
-      <c r="G15" s="7">
+      <c r="I15" s="7">
         <v>15171863</v>
       </c>
-      <c r="H15" s="7">
+      <c r="J15" s="7">
         <v>11168359</v>
       </c>
-      <c r="I15" s="7">
+      <c r="K15" s="7">
         <v>77079767</v>
-      </c>
-      <c r="J15" s="7">
-        <v>24599705</v>
-      </c>
-      <c r="K15" s="7">
-        <v>22977674</v>
       </c>
       <c r="L15" s="7"/>
     </row>
@@ -1000,35 +1005,35 @@
       <c r="A16" s="8">
         <v>45078</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="9">
+        <v>1396864</v>
+      </c>
+      <c r="C16" s="7">
         <v>1355581</v>
       </c>
-      <c r="C16" s="7">
+      <c r="D16" s="7">
         <v>1194330</v>
       </c>
-      <c r="D16" s="7">
+      <c r="E16" s="7">
         <v>1040168</v>
       </c>
-      <c r="E16" s="7">
+      <c r="F16" s="7">
+        <v>101138250</v>
+      </c>
+      <c r="G16" s="7">
         <v>28368828</v>
       </c>
-      <c r="F16" s="7">
+      <c r="H16" s="7">
         <v>27630815</v>
       </c>
-      <c r="G16" s="7">
+      <c r="I16" s="7">
         <v>16594912</v>
       </c>
-      <c r="H16" s="7">
+      <c r="J16" s="7">
         <v>10722667</v>
       </c>
-      <c r="I16" s="7">
+      <c r="K16" s="7">
         <v>80576728</v>
-      </c>
-      <c r="J16" s="7">
-        <v>24905868</v>
-      </c>
-      <c r="K16" s="7">
-        <v>23601060</v>
       </c>
       <c r="L16" s="7"/>
     </row>
@@ -1036,35 +1041,35 @@
       <c r="A17" s="8">
         <v>45108</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="9">
+        <v>1396946</v>
+      </c>
+      <c r="C17" s="7">
         <v>1366332</v>
       </c>
-      <c r="C17" s="7">
+      <c r="D17" s="7">
         <v>1246141</v>
       </c>
-      <c r="D17" s="7">
+      <c r="E17" s="7">
         <v>1087076</v>
       </c>
-      <c r="E17" s="7">
+      <c r="F17" s="7">
+        <v>101097271</v>
+      </c>
+      <c r="G17" s="7">
         <v>30719735</v>
       </c>
-      <c r="F17" s="7">
+      <c r="H17" s="7">
         <v>29903145</v>
       </c>
-      <c r="G17" s="7">
+      <c r="I17" s="7">
         <v>17232490</v>
       </c>
-      <c r="H17" s="7">
+      <c r="J17" s="7">
         <v>11470283</v>
       </c>
-      <c r="I17" s="7">
+      <c r="K17" s="7">
         <v>82331548</v>
-      </c>
-      <c r="J17" s="7">
-        <v>24039595</v>
-      </c>
-      <c r="K17" s="7">
-        <v>23049440</v>
       </c>
       <c r="L17" s="7"/>
     </row>
@@ -1072,35 +1077,35 @@
       <c r="A18" s="8">
         <v>45139</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="9">
+        <v>1396979</v>
+      </c>
+      <c r="C18" s="7">
         <v>1370273</v>
       </c>
-      <c r="C18" s="7">
+      <c r="D18" s="7">
         <v>1271241</v>
       </c>
-      <c r="D18" s="7">
+      <c r="E18" s="7">
         <v>1154671</v>
       </c>
-      <c r="E18" s="7">
+      <c r="F18" s="7">
+        <v>100977641</v>
+      </c>
+      <c r="G18" s="7">
         <v>32653964</v>
       </c>
-      <c r="F18" s="7">
+      <c r="H18" s="7">
         <v>31899145</v>
       </c>
-      <c r="G18" s="7">
+      <c r="I18" s="7">
         <v>18464691</v>
       </c>
-      <c r="H18" s="7">
+      <c r="J18" s="7">
         <v>13385190</v>
       </c>
-      <c r="I18" s="7">
+      <c r="K18" s="7">
         <v>83321051</v>
-      </c>
-      <c r="J18" s="7">
-        <v>23917578</v>
-      </c>
-      <c r="K18" s="7">
-        <v>22966115</v>
       </c>
       <c r="L18" s="7"/>
     </row>
@@ -1108,35 +1113,35 @@
       <c r="A19" s="8">
         <v>45170</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="9">
+        <v>1396957</v>
+      </c>
+      <c r="C19" s="7">
         <v>1375588</v>
       </c>
-      <c r="C19" s="7">
+      <c r="D19" s="7">
         <v>1248566</v>
       </c>
-      <c r="D19" s="7">
+      <c r="E19" s="7">
         <v>1089626</v>
       </c>
-      <c r="E19" s="7">
+      <c r="F19" s="7">
+        <v>101089751</v>
+      </c>
+      <c r="G19" s="7">
         <v>33408294</v>
       </c>
-      <c r="F19" s="7">
+      <c r="H19" s="7">
         <v>20920992</v>
       </c>
-      <c r="G19" s="7">
+      <c r="I19" s="7">
         <v>9856747</v>
       </c>
-      <c r="H19" s="7">
+      <c r="J19" s="7">
         <v>8618791</v>
       </c>
-      <c r="I19" s="7">
+      <c r="K19" s="7">
         <v>83545268</v>
-      </c>
-      <c r="J19" s="7">
-        <v>25975122</v>
-      </c>
-      <c r="K19" s="7">
-        <v>24122809</v>
       </c>
       <c r="L19" s="7"/>
     </row>
@@ -1144,41 +1149,41 @@
       <c r="A20" s="8">
         <v>45200</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="9">
+        <v>1397102</v>
+      </c>
+      <c r="C20" s="7">
         <v>1300228</v>
       </c>
-      <c r="C20" s="7">
+      <c r="D20" s="7">
         <v>1093717</v>
       </c>
-      <c r="D20" s="7">
+      <c r="E20" s="7">
         <v>935158</v>
       </c>
-      <c r="E20" s="7">
+      <c r="F20" s="7">
+        <v>100687994</v>
+      </c>
+      <c r="G20" s="7">
         <v>30629065</v>
       </c>
-      <c r="F20" s="7">
+      <c r="H20" s="7">
         <v>29416963</v>
       </c>
-      <c r="G20" s="7">
+      <c r="I20" s="7">
         <v>12902147</v>
       </c>
-      <c r="H20" s="7">
+      <c r="J20" s="7">
         <v>8784416</v>
       </c>
-      <c r="I20" s="7">
+      <c r="K20" s="7">
         <v>73498491</v>
-      </c>
-      <c r="J20" s="7">
-        <v>22369081</v>
-      </c>
-      <c r="K20" s="7">
-        <v>21407476</v>
       </c>
       <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="7"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -1192,7 +1197,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1201,7 +1206,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="3"/>
+      <c r="K22" s="1"/>
       <c r="L22" s="3"/>
     </row>
   </sheetData>
